--- a/Data/EC/NIT-9002950191.xlsx
+++ b/Data/EC/NIT-9002950191.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B010B503-F9C8-45A9-BBB1-2841C18A1507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49667B4D-65A0-4606-90F0-CB558A73BC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E8D7822-471A-49A8-9BEA-AF05BA54F3C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B7FE240-0C47-486B-8778-1373E04D65E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,55 +65,49 @@
     <t>CC</t>
   </si>
   <si>
-    <t>33104063</t>
-  </si>
-  <si>
-    <t>KARINA MARTINEZ AGAMEZ</t>
+    <t>12639272</t>
+  </si>
+  <si>
+    <t>ARIEL ENRIQUE CASTRO VEGA</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
   </si>
   <si>
     <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>12639272</t>
-  </si>
-  <si>
-    <t>ARIEL ENRIQUE CASTRO VEGA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -212,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BE6E52-597D-3E77-CDD4-3A3D4C551E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9553EB0B-F11A-B3FC-908E-71EEF6C12505}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,8 +872,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5544783A-C018-4C02-AAF2-248602FC0D60}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407B8B28-93FE-416E-9CA3-5667039400D5}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -903,7 +897,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -948,7 +942,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -980,12 +974,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1322371</v>
+        <v>939018</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -996,14 +990,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
         <v>13</v>
@@ -1033,13 +1027,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1056,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1079,10 +1073,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>80000</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1102,10 +1096,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1125,10 +1119,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1148,10 +1142,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1171,10 +1165,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1194,10 +1188,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1217,10 +1211,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1240,10 +1234,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1263,10 +1257,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1286,10 +1280,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>29485</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1309,365 +1303,66 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>29485</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>29485</v>
-      </c>
-      <c r="G28" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="18">
+      <c r="F28" s="24">
         <v>29509</v>
       </c>
-      <c r="G29" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G30" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G28" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="B33" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="24">
-        <v>80000</v>
-      </c>
-      <c r="G41" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
+      <c r="B34" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
